--- a/data/trans_dic/P21D_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21D_3_R-Estudios-trans_dic.xlsx
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.01201979815221888</v>
+        <v>0.01081536791782378</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.006545677960917451</v>
+        <v>0.006963520574874033</v>
       </c>
     </row>
     <row r="7">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.003951320061819029</v>
+        <v>0.003935739322741558</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.00441576776603943</v>
+        <v>0.003819282241494691</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.002356830594262305</v>
+        <v>0.002713884128753648</v>
       </c>
     </row>
     <row r="10">
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0003309967969837351</v>
+        <v>0.0003314290403748119</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0002283948538748057</v>
+        <v>0.0002146435521435615</v>
       </c>
     </row>
     <row r="15">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.002400090843881152</v>
+        <v>0.002452734061925452</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.003256532325714667</v>
+        <v>0.003310737606894672</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.001992963467154234</v>
+        <v>0.002166276838255611</v>
       </c>
     </row>
     <row r="16">
@@ -910,10 +910,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4380</v>
+        <v>3941</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4045</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="8">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3791</v>
+        <v>3776</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4352</v>
+        <v>3764</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4584</v>
+        <v>5279</v>
       </c>
     </row>
     <row r="12">
@@ -1097,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>743</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3745</v>
+        <v>3827</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5510</v>
+        <v>5602</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6482</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="20">
